--- a/frontend/src/data/data1입학2021이수1학기.xlsx
+++ b/frontend/src/data/data1입학2021이수1학기.xlsx
@@ -549,13 +549,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>대기</t>
+          <t>일교</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SSC2012</t>
+          <t>EGC7017</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -563,16 +563,16 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>사회문제론</t>
+          <t>태권도</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>임해영</t>
+          <t>이상현</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Social Problems</t>
+          <t>Tae Kwon Do</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
@@ -614,7 +614,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EGC7101</t>
+          <t>GCR7003</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -622,20 +622,20 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>요가&amp;필라테스</t>
+          <t>일본,문학,그리고불교</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>임주미</t>
+          <t>김호성(法雨)</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>D+</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -652,7 +652,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Yoga and Pilates</t>
+          <t>Japan : Literature, and Buddhism</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
